--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/OREGON_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/OREGON_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D922"/>
+  <dimension ref="A1:D916"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -439,12 +439,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C6">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -496,12 +496,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COMONDÚ</t>
+          <t>Comondú</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C12">
@@ -540,12 +540,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C13">
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C14">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C15">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOPELCHÉN</t>
+          <t>Hopelchén</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C17">
@@ -610,12 +610,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C18">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>BERRIOZÁBAL</t>
+          <t>Berriozábal</t>
         </is>
       </c>
       <c r="C20">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHANAL</t>
+          <t>Chanal</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRONTERA HIDALGO</t>
+          <t>Frontera Hidalgo</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>IXTAPANGAJOYA</t>
+          <t>Ixtapangajoya</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>La Independencia</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>LARRÁINZAR</t>
+          <t>Larráinzar</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>MARAVILLA TENEJAPA</t>
+          <t>Maravilla Tenejapa</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>TZIMOL</t>
+          <t>Tzimol</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,12 +1083,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C54">
@@ -1101,7 +1101,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C55">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C56">
@@ -1127,7 +1127,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>GUACHOCHI</t>
+          <t>Guachochi</t>
         </is>
       </c>
       <c r="C57">
@@ -1140,7 +1140,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C58">
@@ -1153,7 +1153,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C59">
@@ -1166,7 +1166,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C60">
@@ -1179,7 +1179,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C61">
@@ -1192,12 +1192,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C62">
@@ -1210,7 +1210,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C63">
@@ -1223,7 +1223,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C64">
@@ -1236,7 +1236,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C65">
@@ -1249,7 +1249,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C66">
@@ -1262,7 +1262,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C67">
@@ -1275,7 +1275,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C68">
@@ -1288,7 +1288,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C69">
@@ -1301,7 +1301,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C70">
@@ -1314,7 +1314,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C71">
@@ -1327,7 +1327,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C72">
@@ -1340,7 +1340,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C73">
@@ -1353,7 +1353,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C74">
@@ -1366,7 +1366,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C75">
@@ -1379,7 +1379,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C76">
@@ -1392,12 +1392,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C77">
@@ -1410,7 +1410,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>RAMOS ARIZPE</t>
+          <t>Ramos Arizpe</t>
         </is>
       </c>
       <c r="C78">
@@ -1423,7 +1423,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C79">
@@ -1436,7 +1436,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C80">
@@ -1449,12 +1449,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ARMERÍA</t>
+          <t>Armería</t>
         </is>
       </c>
       <c r="C81">
@@ -1467,7 +1467,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C82">
@@ -1480,7 +1480,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>COMALA</t>
+          <t>Comala</t>
         </is>
       </c>
       <c r="C83">
@@ -1493,7 +1493,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C84">
@@ -1506,7 +1506,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C85">
@@ -1519,7 +1519,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C86">
@@ -1532,7 +1532,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>VILLA DE ÁLVAREZ</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C87">
@@ -1545,7 +1545,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C88">
@@ -1558,12 +1558,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C89">
@@ -1576,7 +1576,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>CANELAS</t>
+          <t>Canelas</t>
         </is>
       </c>
       <c r="C90">
@@ -1589,7 +1589,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C91">
@@ -1602,7 +1602,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C92">
@@ -1615,7 +1615,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>INDÉ</t>
+          <t>Indé</t>
         </is>
       </c>
       <c r="C93">
@@ -1628,7 +1628,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C94">
@@ -1641,7 +1641,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C95">
@@ -1654,7 +1654,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C96">
@@ -1667,7 +1667,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>OTÁEZ</t>
+          <t>Otáez</t>
         </is>
       </c>
       <c r="C97">
@@ -1680,7 +1680,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C98">
@@ -1693,7 +1693,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C99">
@@ -1706,7 +1706,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>TAMAZULA</t>
+          <t>Tamazula</t>
         </is>
       </c>
       <c r="C100">
@@ -1719,7 +1719,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TOPIA</t>
+          <t>Topia</t>
         </is>
       </c>
       <c r="C101">
@@ -1732,7 +1732,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C102">
@@ -1745,12 +1745,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C103">
@@ -1763,7 +1763,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>ACULCO</t>
+          <t>Aculco</t>
         </is>
       </c>
       <c r="C104">
@@ -1776,7 +1776,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C105">
@@ -1789,7 +1789,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMANALCO</t>
+          <t>Amanalco</t>
         </is>
       </c>
       <c r="C106">
@@ -1802,7 +1802,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C107">
@@ -1815,7 +1815,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>APAXCO</t>
+          <t>Apaxco</t>
         </is>
       </c>
       <c r="C108">
@@ -1828,7 +1828,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C109">
@@ -1841,7 +1841,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C110">
@@ -1854,7 +1854,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>CALIMAYA</t>
+          <t>Calimaya</t>
         </is>
       </c>
       <c r="C111">
@@ -1867,7 +1867,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>CAPULHUAC</t>
+          <t>Capulhuac</t>
         </is>
       </c>
       <c r="C112">
@@ -1880,7 +1880,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C113">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>CHAPA DE MOTA</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C114">
@@ -1906,7 +1906,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>COACALCO DE BERRIOZÁBAL</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C115">
@@ -1919,7 +1919,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C116">
@@ -1932,7 +1932,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C117">
@@ -1945,7 +1945,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>DONATO GUERRA</t>
+          <t>Donato Guerra</t>
         </is>
       </c>
       <c r="C118">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C119">
@@ -1971,7 +1971,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>HUIXQUILUCAN</t>
+          <t>Huixquilucan</t>
         </is>
       </c>
       <c r="C120">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C121">
@@ -1997,7 +1997,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C122">
@@ -2010,7 +2010,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>JALTENCO</t>
+          <t>Jaltenco</t>
         </is>
       </c>
       <c r="C123">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C124">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C125">
@@ -2049,7 +2049,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C126">
@@ -2062,7 +2062,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>MELCHOR OCAMPO</t>
+          <t>Melchor Ocampo</t>
         </is>
       </c>
       <c r="C127">
@@ -2075,7 +2075,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C128">
@@ -2088,7 +2088,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C129">
@@ -2101,7 +2101,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C130">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>OTZOLOAPAN</t>
+          <t>Otzoloapan</t>
         </is>
       </c>
       <c r="C132">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C135">
@@ -2179,7 +2179,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C136">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>TEZOYUCA</t>
+          <t>Tezoyuca</t>
         </is>
       </c>
       <c r="C137">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C139">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C140">
@@ -2244,7 +2244,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>TULTITLÁN</t>
+          <t>Tultitlán</t>
         </is>
       </c>
       <c r="C141">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C142">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>ZUMPAHUACÁN</t>
+          <t>Zumpahuacán</t>
         </is>
       </c>
       <c r="C144">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C145">
@@ -2309,12 +2309,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C146">
@@ -2327,7 +2327,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C147">
@@ -2340,7 +2340,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C148">
@@ -2353,7 +2353,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C149">
@@ -2366,7 +2366,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C150">
@@ -2379,7 +2379,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C151">
@@ -2392,7 +2392,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C152">
@@ -2405,7 +2405,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C153">
@@ -2418,7 +2418,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C154">
@@ -2431,7 +2431,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C155">
@@ -2444,7 +2444,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C156">
@@ -2457,7 +2457,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C157">
@@ -2470,7 +2470,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C158">
@@ -2483,7 +2483,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C159">
@@ -2496,7 +2496,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C160">
@@ -2509,7 +2509,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C161">
@@ -2522,7 +2522,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C162">
@@ -2535,7 +2535,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C163">
@@ -2548,7 +2548,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C164">
@@ -2561,7 +2561,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C165">
@@ -2574,7 +2574,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C166">
@@ -2587,7 +2587,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C167">
@@ -2600,7 +2600,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C168">
@@ -2613,7 +2613,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C169">
@@ -2626,7 +2626,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C170">
@@ -2639,7 +2639,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C171">
@@ -2652,7 +2652,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C172">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C173">
@@ -2678,7 +2678,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C174">
@@ -2691,7 +2691,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C175">
@@ -2704,12 +2704,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C176">
@@ -2722,7 +2722,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C177">
@@ -2735,7 +2735,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C178">
@@ -2748,7 +2748,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>ALCOZAUCA DE GUERRERO</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C179">
@@ -2761,7 +2761,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>APAXTLA</t>
+          <t>Apaxtla</t>
         </is>
       </c>
       <c r="C180">
@@ -2774,7 +2774,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C181">
@@ -2787,7 +2787,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>ATLAMAJALCINGO DEL MONTE</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C182">
@@ -2800,7 +2800,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C183">
@@ -2813,7 +2813,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C184">
@@ -2826,7 +2826,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C185">
@@ -2839,7 +2839,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C186">
@@ -2852,7 +2852,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>BUENAVISTA DE CUÉLLAR</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C187">
@@ -2865,7 +2865,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C188">
@@ -2878,7 +2878,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C189">
@@ -2891,7 +2891,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>COAHUAYUTLA DE JOSÉ MARÍA IZAZAGA</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C190">
@@ -2904,7 +2904,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>COCHOAPA EL GRANDE</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C191">
@@ -2917,7 +2917,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>COPANATOYAC</t>
+          <t>Copanatoyac</t>
         </is>
       </c>
       <c r="C192">
@@ -2930,7 +2930,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C193">
@@ -2943,7 +2943,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C194">
@@ -2956,7 +2956,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C195">
@@ -2969,7 +2969,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C196">
@@ -2982,7 +2982,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C197">
@@ -2995,7 +2995,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C198">
@@ -3008,7 +3008,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C199">
@@ -3021,7 +3021,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C200">
@@ -3034,7 +3034,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C201">
@@ -3047,7 +3047,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C202">
@@ -3060,7 +3060,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C203">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>IXCATEOPAN DE CUAUHTÉMOC</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C204">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C205">
@@ -3099,7 +3099,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C206">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>LEONARDO BRAVO</t>
+          <t>Leonardo Bravo</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C208">
@@ -3138,7 +3138,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C209">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>MÁRTIR DE CUILAPAN</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C210">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C211">
@@ -3177,7 +3177,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C213">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C214">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C216">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C220">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C222">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>TETIPAC</t>
+          <t>Tetipac</t>
         </is>
       </c>
       <c r="C223">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>TIXTLA DE GUERRERO</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C224">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C225">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C226">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C227">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C228">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C229">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C230">
@@ -3424,7 +3424,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C231">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C233">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>ZITLALA</t>
+          <t>Zitlala</t>
         </is>
       </c>
       <c r="C234">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C235">
@@ -3489,12 +3489,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C236">
@@ -3507,7 +3507,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>ACAXOCHITLÁN</t>
+          <t>Acaxochitlán</t>
         </is>
       </c>
       <c r="C237">
@@ -3520,7 +3520,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C238">
@@ -3533,7 +3533,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C239">
@@ -3546,7 +3546,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C240">
@@ -3559,7 +3559,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>CHAPANTONGO</t>
+          <t>Chapantongo</t>
         </is>
       </c>
       <c r="C241">
@@ -3572,7 +3572,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>CHILCUAUTLA</t>
+          <t>Chilcuautla</t>
         </is>
       </c>
       <c r="C242">
@@ -3585,7 +3585,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C243">
@@ -3598,7 +3598,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>EL ARENAL</t>
+          <t>El Arenal</t>
         </is>
       </c>
       <c r="C244">
@@ -3611,7 +3611,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C245">
@@ -3624,7 +3624,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C246">
@@ -3637,7 +3637,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C247">
@@ -3650,7 +3650,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
+          <t>Huichapan</t>
         </is>
       </c>
       <c r="C248">
@@ -3663,7 +3663,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C249">
@@ -3676,7 +3676,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C250">
@@ -3689,7 +3689,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C251">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>MINERAL DEL MONTE</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C252">
@@ -3715,7 +3715,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>NICOLÁS FLORES</t>
+          <t>Nicolás Flores</t>
         </is>
       </c>
       <c r="C253">
@@ -3728,7 +3728,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>NOPALA DE VILLAGRÁN</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C254">
@@ -3741,7 +3741,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C255">
@@ -3754,7 +3754,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C256">
@@ -3767,7 +3767,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C257">
@@ -3780,7 +3780,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>SANTIAGO TULANTEPEC DE LUGO GUERRERO</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C258">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>SINGUILUCAN</t>
+          <t>Singuilucan</t>
         </is>
       </c>
       <c r="C259">
@@ -3806,7 +3806,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>TECOZAUTLA</t>
+          <t>Tecozautla</t>
         </is>
       </c>
       <c r="C260">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C261">
@@ -3832,7 +3832,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C262">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C263">
@@ -3858,7 +3858,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>TLAHUELILPAN</t>
+          <t>Tlahuelilpan</t>
         </is>
       </c>
       <c r="C264">
@@ -3871,7 +3871,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>TLAXCOAPAN</t>
+          <t>Tlaxcoapan</t>
         </is>
       </c>
       <c r="C265">
@@ -3884,7 +3884,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>TOLCAYUCA</t>
+          <t>Tolcayuca</t>
         </is>
       </c>
       <c r="C266">
@@ -3897,7 +3897,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C267">
@@ -3910,7 +3910,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C268">
@@ -3923,7 +3923,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>XOCHICOATLÁN</t>
+          <t>Xochicoatlán</t>
         </is>
       </c>
       <c r="C269">
@@ -3936,7 +3936,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>YAHUALICA</t>
+          <t>Yahualica</t>
         </is>
       </c>
       <c r="C270">
@@ -3949,7 +3949,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C271">
@@ -3962,7 +3962,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C272">
@@ -3975,12 +3975,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ACATIC</t>
+          <t>Acatic</t>
         </is>
       </c>
       <c r="C273">
@@ -3993,7 +3993,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>ACATLÁN DE JUÁREZ</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C274">
@@ -4006,7 +4006,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>AHUALULCO DE MERCADO</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C275">
@@ -4019,7 +4019,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>AMACUECA</t>
+          <t>Amacueca</t>
         </is>
       </c>
       <c r="C276">
@@ -4032,7 +4032,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>AMATITÁN</t>
+          <t>Amatitán</t>
         </is>
       </c>
       <c r="C277">
@@ -4045,7 +4045,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C278">
@@ -4058,7 +4058,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>ATEMAJAC DE BRIZUELA</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C279">
@@ -4071,7 +4071,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>ATENGO</t>
+          <t>Atengo</t>
         </is>
       </c>
       <c r="C280">
@@ -4084,7 +4084,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>ATENGUILLO</t>
+          <t>Atenguillo</t>
         </is>
       </c>
       <c r="C281">
@@ -4097,7 +4097,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C282">
@@ -4110,7 +4110,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C283">
@@ -4123,7 +4123,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C284">
@@ -4136,7 +4136,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C285">
@@ -4149,7 +4149,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>BOLAÑOS</t>
+          <t>Bolaños</t>
         </is>
       </c>
       <c r="C286">
@@ -4162,7 +4162,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>CABO CORRIENTES</t>
+          <t>Cabo Corrientes</t>
         </is>
       </c>
       <c r="C287">
@@ -4175,7 +4175,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C288">
@@ -4188,7 +4188,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>CHAPALA</t>
+          <t>Chapala</t>
         </is>
       </c>
       <c r="C289">
@@ -4201,7 +4201,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>CIHUATLÁN</t>
+          <t>Cihuatlán</t>
         </is>
       </c>
       <c r="C290">
@@ -4214,7 +4214,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C291">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C292">
@@ -4240,7 +4240,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DE BUENOS AIRES</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C293">
@@ -4253,7 +4253,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN DE GARCÍA BARRAGÁN</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C294">
@@ -4266,7 +4266,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C295">
@@ -4279,7 +4279,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C296">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>EL GRULLO</t>
+          <t>El Grullo</t>
         </is>
       </c>
       <c r="C297">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>ETZATLÁN</t>
+          <t>Etzatlán</t>
         </is>
       </c>
       <c r="C298">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C299">
@@ -4331,7 +4331,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C300">
@@ -4344,7 +4344,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>HOSTOTIPAQUILLO</t>
+          <t>Hostotipaquillo</t>
         </is>
       </c>
       <c r="C301">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>HUEJUQUILLA EL ALTO</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C302">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C303">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>JALOSTOTITLÁN</t>
+          <t>Jalostotitlán</t>
         </is>
       </c>
       <c r="C304">
@@ -4396,7 +4396,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>JAMAY</t>
+          <t>Jamay</t>
         </is>
       </c>
       <c r="C305">
@@ -4409,7 +4409,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C306">
@@ -4422,7 +4422,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C307">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>MEZQUITIC</t>
+          <t>Mezquitic</t>
         </is>
       </c>
       <c r="C308">
@@ -4448,7 +4448,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C309">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C310">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>PONCITLÁN</t>
+          <t>Poncitlán</t>
         </is>
       </c>
       <c r="C311">
@@ -4487,7 +4487,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C312">
@@ -4500,7 +4500,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>QUITUPAN</t>
+          <t>Quitupan</t>
         </is>
       </c>
       <c r="C313">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>SAN GABRIEL</t>
+          <t>San Gabriel</t>
         </is>
       </c>
       <c r="C314">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>SAN JULIÁN</t>
+          <t>San Julián</t>
         </is>
       </c>
       <c r="C315">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE BOLAÑOS</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C316">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C317">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>SAYULA</t>
+          <t>Sayula</t>
         </is>
       </c>
       <c r="C318">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C319">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>TALPA DE ALLENDE</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C320">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C321">
@@ -4617,7 +4617,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>TECOLOTLÁN</t>
+          <t>Tecolotlán</t>
         </is>
       </c>
       <c r="C322">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TENAMAXTLÁN</t>
+          <t>Tenamaxtlán</t>
         </is>
       </c>
       <c r="C323">
@@ -4643,7 +4643,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C324">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>TEOCUITATLÁN DE CORONA</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C325">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C326">
@@ -4682,7 +4682,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C327">
@@ -4695,7 +4695,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C328">
@@ -4708,7 +4708,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C329">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C330">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>TONILA</t>
+          <t>Tonila</t>
         </is>
       </c>
       <c r="C331">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>Tototlán</t>
         </is>
       </c>
       <c r="C332">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>UNIÓN DE SAN ANTONIO</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C333">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>VILLA CORONA</t>
+          <t>Villa Corona</t>
         </is>
       </c>
       <c r="C335">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
+          <t>Villa Guerrero</t>
         </is>
       </c>
       <c r="C336">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C337">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C338">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C339">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C340">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN DE VADILLO</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C341">
@@ -4877,7 +4877,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C342">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C343">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C344">
@@ -4916,12 +4916,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ACUITZIO</t>
+          <t>Acuitzio</t>
         </is>
       </c>
       <c r="C345">
@@ -4934,7 +4934,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>AGUILILLA</t>
+          <t>Aguililla</t>
         </is>
       </c>
       <c r="C346">
@@ -4947,7 +4947,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>ANGANGUEO</t>
+          <t>Angangueo</t>
         </is>
       </c>
       <c r="C347">
@@ -4960,7 +4960,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C348">
@@ -4973,7 +4973,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C349">
@@ -4986,7 +4986,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C350">
@@ -4999,7 +4999,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>ARTEAGA</t>
+          <t>Arteaga</t>
         </is>
       </c>
       <c r="C351">
@@ -5012,7 +5012,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C352">
@@ -5025,7 +5025,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>CHARAPAN</t>
+          <t>Charapan</t>
         </is>
       </c>
       <c r="C353">
@@ -5038,7 +5038,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>CHARO</t>
+          <t>Charo</t>
         </is>
       </c>
       <c r="C354">
@@ -5051,7 +5051,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>CHILCHOTA</t>
+          <t>Chilchota</t>
         </is>
       </c>
       <c r="C355">
@@ -5064,7 +5064,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>CHINICUILA</t>
+          <t>Chinicuila</t>
         </is>
       </c>
       <c r="C356">
@@ -5077,7 +5077,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>CHUCÁNDIRO</t>
+          <t>Chucándiro</t>
         </is>
       </c>
       <c r="C357">
@@ -5090,7 +5090,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>CHURINTZIO</t>
+          <t>Churintzio</t>
         </is>
       </c>
       <c r="C358">
@@ -5103,7 +5103,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>CHURUMUCO</t>
+          <t>Churumuco</t>
         </is>
       </c>
       <c r="C359">
@@ -5116,7 +5116,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>COAHUAYANA</t>
+          <t>Coahuayana</t>
         </is>
       </c>
       <c r="C360">
@@ -5129,7 +5129,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C361">
@@ -5142,7 +5142,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>COENEO</t>
+          <t>Coeneo</t>
         </is>
       </c>
       <c r="C362">
@@ -5155,7 +5155,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>COJUMATLÁN DE RÉGULES</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C363">
@@ -5168,7 +5168,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>COPÁNDARO</t>
+          <t>Copándaro</t>
         </is>
       </c>
       <c r="C364">
@@ -5181,7 +5181,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>COTIJA</t>
+          <t>Cotija</t>
         </is>
       </c>
       <c r="C365">
@@ -5194,7 +5194,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>CUITZEO</t>
+          <t>Cuitzeo</t>
         </is>
       </c>
       <c r="C366">
@@ -5207,7 +5207,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>ERONGARÍCUARO</t>
+          <t>Erongarícuaro</t>
         </is>
       </c>
       <c r="C367">
@@ -5220,7 +5220,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>GABRIEL ZAMORA</t>
+          <t>Gabriel Zamora</t>
         </is>
       </c>
       <c r="C368">
@@ -5233,7 +5233,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>HUANDACAREO</t>
+          <t>Huandacareo</t>
         </is>
       </c>
       <c r="C369">
@@ -5246,7 +5246,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C370">
@@ -5259,7 +5259,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>HUIRAMBA</t>
+          <t>Huiramba</t>
         </is>
       </c>
       <c r="C371">
@@ -5272,7 +5272,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>INDAPARAPEO</t>
+          <t>Indaparapeo</t>
         </is>
       </c>
       <c r="C372">
@@ -5285,7 +5285,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C373">
@@ -5298,7 +5298,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>IXTLÁN</t>
+          <t>Ixtlán</t>
         </is>
       </c>
       <c r="C374">
@@ -5311,7 +5311,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>JACONA</t>
+          <t>Jacona</t>
         </is>
       </c>
       <c r="C375">
@@ -5324,7 +5324,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C376">
@@ -5337,7 +5337,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C377">
@@ -5350,7 +5350,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>JUNGAPEO</t>
+          <t>Jungapeo</t>
         </is>
       </c>
       <c r="C378">
@@ -5363,7 +5363,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C379">
@@ -5376,7 +5376,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C380">
@@ -5389,7 +5389,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C381">
@@ -5402,7 +5402,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C382">
@@ -5415,7 +5415,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>Madero</t>
         </is>
       </c>
       <c r="C383">
@@ -5428,7 +5428,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C384">
@@ -5441,7 +5441,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C385">
@@ -5454,7 +5454,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C386">
@@ -5467,7 +5467,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C387">
@@ -5480,7 +5480,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>NAHUATZEN</t>
+          <t>Nahuatzen</t>
         </is>
       </c>
       <c r="C388">
@@ -5493,7 +5493,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C389">
@@ -5506,7 +5506,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>NUEVO PARANGARICUTIRO</t>
+          <t>Nuevo Parangaricutiro</t>
         </is>
       </c>
       <c r="C390">
@@ -5519,7 +5519,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>NUEVO URECHO</t>
+          <t>Nuevo Urecho</t>
         </is>
       </c>
       <c r="C391">
@@ -5532,7 +5532,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C392">
@@ -5545,7 +5545,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>PAJACUARÁN</t>
+          <t>Pajacuarán</t>
         </is>
       </c>
       <c r="C393">
@@ -5558,7 +5558,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>PANINDÍCUARO</t>
+          <t>Panindícuaro</t>
         </is>
       </c>
       <c r="C394">
@@ -5571,7 +5571,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C395">
@@ -5584,7 +5584,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>PARÁCUARO</t>
+          <t>Parácuaro</t>
         </is>
       </c>
       <c r="C396">
@@ -5597,7 +5597,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>PENJAMILLO</t>
+          <t>Penjamillo</t>
         </is>
       </c>
       <c r="C397">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C398">
@@ -5623,7 +5623,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>PURÉPERO</t>
+          <t>Purépero</t>
         </is>
       </c>
       <c r="C399">
@@ -5636,7 +5636,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C400">
@@ -5649,7 +5649,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C401">
@@ -5662,7 +5662,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C402">
@@ -5675,7 +5675,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C403">
@@ -5688,7 +5688,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>SALVADOR ESCALANTE</t>
+          <t>Salvador Escalante</t>
         </is>
       </c>
       <c r="C404">
@@ -5701,7 +5701,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C405">
@@ -5714,7 +5714,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>SANTA ANA MAYA</t>
+          <t>Santa Ana Maya</t>
         </is>
       </c>
       <c r="C406">
@@ -5727,7 +5727,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>SENGUIO</t>
+          <t>Senguio</t>
         </is>
       </c>
       <c r="C407">
@@ -5740,7 +5740,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C408">
@@ -5753,7 +5753,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C409">
@@ -5766,7 +5766,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>TANGAMANDAPIO</t>
+          <t>Tangamandapio</t>
         </is>
       </c>
       <c r="C410">
@@ -5779,7 +5779,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C411">
@@ -5792,7 +5792,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>TARÍMBARO</t>
+          <t>Tarímbaro</t>
         </is>
       </c>
       <c r="C412">
@@ -5805,7 +5805,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C413">
@@ -5818,7 +5818,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>TINGAMBATO</t>
+          <t>Tingambato</t>
         </is>
       </c>
       <c r="C414">
@@ -5831,7 +5831,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>TINGUINDÍN</t>
+          <t>Tinguindín</t>
         </is>
       </c>
       <c r="C415">
@@ -5844,7 +5844,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>TINGÜINDÍN</t>
+          <t>Tingüindín</t>
         </is>
       </c>
       <c r="C416">
@@ -5857,7 +5857,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C417">
@@ -5870,7 +5870,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>TLAZAZALCA</t>
+          <t>Tlazazalca</t>
         </is>
       </c>
       <c r="C418">
@@ -5883,7 +5883,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>TUMBISCATÍO</t>
+          <t>Tumbiscatío</t>
         </is>
       </c>
       <c r="C419">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C420">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C421">
@@ -5922,7 +5922,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C422">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>TZINTZUNTZAN</t>
+          <t>Tzintzuntzan</t>
         </is>
       </c>
       <c r="C423">
@@ -5948,7 +5948,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C424">
@@ -5961,7 +5961,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C425">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C426">
@@ -5987,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>VILLAMAR</t>
+          <t>Villamar</t>
         </is>
       </c>
       <c r="C427">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>VISTA HERMOSA</t>
+          <t>Vista Hermosa</t>
         </is>
       </c>
       <c r="C428">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C429">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C430">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C431">
@@ -6052,7 +6052,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C432">
@@ -6065,7 +6065,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C433">
@@ -6078,7 +6078,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C434">
@@ -6091,7 +6091,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C435">
@@ -6104,12 +6104,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ATLATLAHUCAN</t>
+          <t>Atlatlahucan</t>
         </is>
       </c>
       <c r="C436">
@@ -6122,7 +6122,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>AXOCHIAPAN</t>
+          <t>Axochiapan</t>
         </is>
       </c>
       <c r="C437">
@@ -6135,7 +6135,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C438">
@@ -6148,7 +6148,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>COATLÁN DEL RÍO</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C439">
@@ -6161,7 +6161,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C440">
@@ -6174,7 +6174,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C441">
@@ -6187,7 +6187,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>JONACATEPEC</t>
+          <t>Jonacatepec</t>
         </is>
       </c>
       <c r="C442">
@@ -6200,7 +6200,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>MIACATLÁN</t>
+          <t>Miacatlán</t>
         </is>
       </c>
       <c r="C443">
@@ -6213,7 +6213,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C444">
@@ -6226,7 +6226,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C445">
@@ -6239,7 +6239,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>TEMOAC</t>
+          <t>Temoac</t>
         </is>
       </c>
       <c r="C446">
@@ -6252,7 +6252,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>TEPALCINGO</t>
+          <t>Tepalcingo</t>
         </is>
       </c>
       <c r="C447">
@@ -6265,7 +6265,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C448">
@@ -6278,7 +6278,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C449">
@@ -6291,7 +6291,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>XOCHITEPEC</t>
+          <t>Xochitepec</t>
         </is>
       </c>
       <c r="C450">
@@ -6304,7 +6304,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C451">
@@ -6317,7 +6317,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C452">
@@ -6330,7 +6330,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C453">
@@ -6343,12 +6343,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ACAPONETA</t>
+          <t>Acaponeta</t>
         </is>
       </c>
       <c r="C454">
@@ -6361,7 +6361,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C455">
@@ -6374,7 +6374,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>AMATLÁN DE CAÑAS</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C456">
@@ -6387,7 +6387,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>BAHÍA DE BANDERAS</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C457">
@@ -6400,7 +6400,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C458">
@@ -6413,7 +6413,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>DEL NAYAR</t>
+          <t>Del Nayar</t>
         </is>
       </c>
       <c r="C459">
@@ -6426,7 +6426,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>JALA</t>
+          <t>Jala</t>
         </is>
       </c>
       <c r="C460">
@@ -6439,7 +6439,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>LA YESCA</t>
+          <t>La Yesca</t>
         </is>
       </c>
       <c r="C461">
@@ -6452,7 +6452,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>ROSAMORADA</t>
+          <t>Rosamorada</t>
         </is>
       </c>
       <c r="C462">
@@ -6465,7 +6465,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>RUÍZ</t>
+          <t>Ruíz</t>
         </is>
       </c>
       <c r="C463">
@@ -6478,7 +6478,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C464">
@@ -6491,7 +6491,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C465">
@@ -6504,7 +6504,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C466">
@@ -6517,7 +6517,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>TECUALA</t>
+          <t>Tecuala</t>
         </is>
       </c>
       <c r="C467">
@@ -6530,7 +6530,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C468">
@@ -6543,7 +6543,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C469">
@@ -6556,7 +6556,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>XALISCO</t>
+          <t>Xalisco</t>
         </is>
       </c>
       <c r="C470">
@@ -6569,7 +6569,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C471">
@@ -6582,12 +6582,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>DOCTOR ARROYO</t>
+          <t>Doctor Arroyo</t>
         </is>
       </c>
       <c r="C472">
@@ -6600,7 +6600,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C473">
@@ -6613,7 +6613,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C474">
@@ -6626,7 +6626,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C475">
@@ -6639,7 +6639,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C476">
@@ -6652,12 +6652,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ACATLÁN DE PÉREZ FIGUEROA</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C477">
@@ -6670,7 +6670,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>ASUNCIÓN CUYOTEPEJI</t>
+          <t>Asunción Cuyotepeji</t>
         </is>
       </c>
       <c r="C478">
@@ -6683,7 +6683,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>ASUNCIÓN NOCHIXTLÁN</t>
+          <t>Asunción Nochixtlán</t>
         </is>
       </c>
       <c r="C479">
@@ -6696,7 +6696,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>AYOQUEZCO DE ALDAMA</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C480">
@@ -6709,7 +6709,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C481">
@@ -6722,7 +6722,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>CHALCATONGO DE HIDALGO</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C482">
@@ -6735,7 +6735,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>COATECAS ALTAS</t>
+          <t>Coatecas Altas</t>
         </is>
       </c>
       <c r="C483">
@@ -6748,7 +6748,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>COICOYÁN DE LAS FLORES</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C484">
@@ -6761,7 +6761,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>CONSTANCIA DEL ROSARIO</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C485">
@@ -6774,7 +6774,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>COSOLAPA</t>
+          <t>Cosolapa</t>
         </is>
       </c>
       <c r="C486">
@@ -6787,7 +6787,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>GUADALUPE DE RAMÍREZ</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C487">
@@ -6800,7 +6800,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>GUEVEA DE HUMBOLDT</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C488">
@@ -6813,7 +6813,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE EJUTLA DE CRESPO</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C489">
@@ -6826,7 +6826,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C490">
@@ -6839,7 +6839,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C491">
@@ -6852,7 +6852,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C492">
@@ -6865,7 +6865,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C493">
@@ -6878,7 +6878,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>IXPANTEPEC NIEVES</t>
+          <t>Ixpantepec Nieves</t>
         </is>
       </c>
       <c r="C494">
@@ -6891,7 +6891,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C495">
@@ -6904,7 +6904,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>LA REFORMA</t>
+          <t>La Reforma</t>
         </is>
       </c>
       <c r="C496">
@@ -6917,7 +6917,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C497">
@@ -6930,7 +6930,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>MAGDALENA TEQUISISTLÁN</t>
+          <t>Magdalena Tequisistlán</t>
         </is>
       </c>
       <c r="C498">
@@ -6943,7 +6943,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>MAGDALENA ZAHUATLÁN</t>
+          <t>Magdalena Zahuatlán</t>
         </is>
       </c>
       <c r="C499">
@@ -6956,7 +6956,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>MARISCALA DE JUÁREZ</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C500">
@@ -6969,7 +6969,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C501">
@@ -6982,7 +6982,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>MAZATLÁN VILLA DE FLORES</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C502">
@@ -6995,7 +6995,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>MESONES HIDALGO</t>
+          <t>Mesones Hidalgo</t>
         </is>
       </c>
       <c r="C503">
@@ -7008,7 +7008,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C504">
@@ -7021,7 +7021,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C505">
@@ -7034,7 +7034,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C506">
@@ -7047,7 +7047,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C507">
@@ -7060,7 +7060,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>PINOTEPA DE DON LUIS</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C508">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>PLUMA HIDALGO</t>
+          <t>Pluma Hidalgo</t>
         </is>
       </c>
       <c r="C509">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C510">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN ATENANGO</t>
+          <t>San Agustín Atenango</t>
         </is>
       </c>
       <c r="C511">
@@ -7112,7 +7112,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN CHAYUCO</t>
+          <t>San Agustín Chayuco</t>
         </is>
       </c>
       <c r="C512">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN ETLA</t>
+          <t>San Agustín Etla</t>
         </is>
       </c>
       <c r="C513">
@@ -7138,7 +7138,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C514">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CABECERA NUEVA</t>
+          <t>San Andrés Cabecera Nueva</t>
         </is>
       </c>
       <c r="C515">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS IXTLAHUACA</t>
+          <t>San Andrés Ixtlahuaca</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS PAXTLÁN</t>
+          <t>San Andrés Paxtlán</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS ZABACHE</t>
+          <t>San Andrés Zabache</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>SAN BALTAZAR CHICHICÁPAM</t>
+          <t>San Baltazar Chichicápam</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>SAN BERNARDO MIXTEPEC</t>
+          <t>San Bernardo Mixtepec</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL AMATLÁN</t>
+          <t>San Cristóbal Amatlán</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEJALÁPAM</t>
+          <t>San Felipe Tejalápam</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C523">
@@ -7268,7 +7268,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO CAHUACUÁ</t>
+          <t>San Francisco Cahuacuá</t>
         </is>
       </c>
       <c r="C524">
@@ -7281,7 +7281,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO SILACAYOAPILLA</t>
+          <t>San Jerónimo Silacayoapilla</t>
         </is>
       </c>
       <c r="C525">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO SOSOLA</t>
+          <t>San Jerónimo Sosola</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO TLACOCHAHUAYA</t>
+          <t>San Jerónimo Tlacochahuaya</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>SAN JORGE NUCHITA</t>
+          <t>San Jorge Nuchita</t>
         </is>
       </c>
       <c r="C528">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C529">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL PEÑASCO</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>SAN JOSÉ LACHIGUIRI</t>
+          <t>San José Lachiguiri</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA COIXTLAHUACA</t>
+          <t>San Juan Bautista Coixtlahuaca</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA CUICATLÁN</t>
+          <t>San Juan Bautista Cuicatlán</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TLACHICHILCO</t>
+          <t>San Juan Bautista Tlachichilco</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>SAN JUAN CACAHUATEPEC</t>
+          <t>San Juan Cacahuatepec</t>
         </is>
       </c>
       <c r="C537">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>SAN JUAN CHILATECA</t>
+          <t>San Juan Chilateca</t>
         </is>
       </c>
       <c r="C538">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>SAN JUAN GUICHICOVI</t>
+          <t>San Juan Guichicovi</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 26 -</t>
+          <t>San Juan Mixtepec -Dto. 26 -</t>
         </is>
       </c>
       <c r="C542">
@@ -7515,7 +7515,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>SAN JUAN OZOLOTEPEC</t>
+          <t>San Juan Ozolotepec</t>
         </is>
       </c>
       <c r="C543">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>SAN JUAN QUIAHIJE</t>
+          <t>San Juan Quiahije</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>SAN JUAN SAYULTEPEC</t>
+          <t>San Juan Sayultepec</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>SAN JUAN TAMAZOLA</t>
+          <t>San Juan Tamazola</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>SAN JUAN ÑUMÍ</t>
+          <t>San Juan Ñumí</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>SAN LORENZO TEXMELÚCAN</t>
+          <t>San Lorenzo Texmelúcan</t>
         </is>
       </c>
       <c r="C549">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>SAN LUIS AMATLÁN</t>
+          <t>San Luis Amatlán</t>
         </is>
       </c>
       <c r="C550">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>SAN MARTÍN ITUNYOSO</t>
+          <t>San Martín Itunyoso</t>
         </is>
       </c>
       <c r="C551">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>SAN MARTÍN LACHILÁ</t>
+          <t>San Martín Lachilá</t>
         </is>
       </c>
       <c r="C552">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>SAN MARTÍN PERAS</t>
+          <t>San Martín Peras</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>SAN MARTÍN ZACATEPEC</t>
+          <t>San Martín Zacatepec</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>SAN MATEO PEÑASCO</t>
+          <t>San Mateo Peñasco</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>SAN MATEO SINDIHUI</t>
+          <t>San Mateo Sindihui</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>SAN MIGUEL AMATITLÁN</t>
+          <t>San Miguel Amatitlán</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>SAN MIGUEL COATLÁN</t>
+          <t>San Miguel Coatlán</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DEL PUERTO</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL GRANDE</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>SAN MIGUEL MIXTEPEC</t>
+          <t>San Miguel Mixtepec</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SUCHIXTEPEC</t>
+          <t>San Miguel Suchixtepec</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TLACAMAMA</t>
+          <t>San Miguel Tlacamama</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TLACOTEPEC</t>
+          <t>San Miguel Tlacotepec</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>SAN PABLO ETLA</t>
+          <t>San Pablo Etla</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>SAN PABLO HUITZO</t>
+          <t>San Pablo Huitzo</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>SAN PABLO HUIXTEPEC</t>
+          <t>San Pablo Huixtepec</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>SAN PEDRO AMUZGOS</t>
+          <t>San Pedro Amuzgos</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>SAN PEDRO EL ALTO</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>SAN PEDRO JICAYÁN</t>
+          <t>San Pedro Jicayán</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>SAN PEDRO MÁRTIR</t>
+          <t>San Pedro Mártir</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C573">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>SAN PEDRO QUIATONI</t>
+          <t>San Pedro Quiatoni</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEQUIXTEPEC</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>SAN PEDRO YÓLOX</t>
+          <t>San Pedro Yólox</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>SAN RAYMUNDO JALPAN</t>
+          <t>San Raymundo Jalpan</t>
         </is>
       </c>
       <c r="C577">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN IXCAPA</t>
+          <t>San Sebastián Ixcapa</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN RÍO HONDO</t>
+          <t>San Sebastián Río Hondo</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TECOMAXTLAHUACA</t>
+          <t>San Sebastián Tecomaxtlahuaca</t>
         </is>
       </c>
       <c r="C580">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>SAN VICENTE COATLÁN</t>
+          <t>San Vicente Coatlán</t>
         </is>
       </c>
       <c r="C581">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>SANTA ANA TLAPACOYAN</t>
+          <t>Santa Ana Tlapacoyan</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>SANTA ANA ZEGACHE</t>
+          <t>Santa Ana Zegache</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>SANTA CATALINA QUIERÍ</t>
+          <t>Santa Catalina Quierí</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ITUNDUJIA</t>
+          <t>Santa Cruz Itundujia</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>SANTA CRUZ MIXTEPEC</t>
+          <t>Santa Cruz Mixtepec</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>SANTA CRUZ TACACHE DE MINA</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C587">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>SANTA CRUZ XOXOCOTLÁN</t>
+          <t>Santa Cruz Xoxocotlán</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ZENZONTEPEC</t>
+          <t>Santa Cruz Zenzontepec</t>
         </is>
       </c>
       <c r="C589">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>SANTA GERTRUDIS</t>
+          <t>Santa Gertrudis</t>
         </is>
       </c>
       <c r="C590">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>SANTA INÉS DEL MONTE</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>SANTA INÉS YATZECHE</t>
+          <t>Santa Inés Yatzeche</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>SANTA LUCÍA MONTEVERDE</t>
+          <t>Santa Lucía Monteverde</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>SANTA LUCÍA OCOTLÁN</t>
+          <t>Santa Lucía Ocotlán</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ALOTEPEC</t>
+          <t>Santa María Alotepec</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CAMOTLÁN</t>
+          <t>Santa María Camotlán</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CHIMALAPA</t>
+          <t>Santa María Chimalapa</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>SANTA MARÍA GUIENAGATI</t>
+          <t>Santa María Guienagati</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUAZOLOTITLÁN</t>
+          <t>Santa María Huazolotitlán</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JALAPA DEL MARQUÉS</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TEXCATITLÁN</t>
+          <t>Santa María Texcatitlán</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZACATEPEC</t>
+          <t>Santa María Zacatepec</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>SANTIAGO AMOLTEPEC</t>
+          <t>Santiago Amoltepec</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>SANTIAGO APÓSTOL</t>
+          <t>Santiago Apóstol</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>SANTIAGO AYUQUILILLA</t>
+          <t>Santiago Ayuquililla</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>SANTIAGO CHAZUMBA</t>
+          <t>Santiago Chazumba</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>SANTIAGO CHOÁPAM</t>
+          <t>Santiago Choápam</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>SANTIAGO COMALTEPEC</t>
+          <t>Santiago Comaltepec</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>SANTIAGO DEL RÍO</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>SANTIAGO HUAJOLOTITLÁN</t>
+          <t>Santiago Huajolotitlán</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>SANTIAGO NUYOÓ</t>
+          <t>Santiago Nuyoó</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>SANTIAGO SUCHILQUITONGO</t>
+          <t>Santiago Suchilquitongo</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>SANTIAGO TAMAZOLA</t>
+          <t>Santiago Tamazola</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>SANTIAGO TAPEXTLA</t>
+          <t>Santiago Tapextla</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>SANTIAGO TEXTITLÁN</t>
+          <t>Santiago Textitlán</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>SANTIAGO TLAZOYALTEPEC</t>
+          <t>Santiago Tlazoyaltepec</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>SANTIAGO YOSONDÚA</t>
+          <t>Santiago Yosondúa</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>SANTIAGO YUCUYACHI</t>
+          <t>Santiago Yucuyachi</t>
         </is>
       </c>
       <c r="C623">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ALBARRADAS</t>
+          <t>Santo Domingo Albarradas</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C626">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEPUXTEPEC</t>
+          <t>Santo Domingo Tepuxtepec</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TONALÁ</t>
+          <t>Santo Domingo Tonalá</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS OCOTEPEC</t>
+          <t>Santo Tomás Ocotepec</t>
         </is>
       </c>
       <c r="C629">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>SANTOS REYES TEPEJILLO</t>
+          <t>Santos Reyes Tepejillo</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>TATALTEPEC DE VALDÉS</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>TEOTITLÁN DE FLORES MAGÓN</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>TEZOATLÁN DE SEGURA Y LUNA</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>TOTONTEPEC VILLA DE MORELOS</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>VILLA DE TAMAZULÁPAM DEL PROGRESO</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>VILLA DE ZAACHILA</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>VILLA SOLA DE VEGA</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>YAXE</t>
+          <t>Yaxe</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>YUTANDUCHI DE GUERRERO</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,12 +8828,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C644">
@@ -8846,7 +8846,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C645">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C646">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C647">
@@ -8885,7 +8885,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C648">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>AQUIXTLA</t>
+          <t>Aquixtla</t>
         </is>
       </c>
       <c r="C649">
@@ -8911,7 +8911,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>ATEXCAL</t>
+          <t>Atexcal</t>
         </is>
       </c>
       <c r="C650">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C651">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>ATZITZINTLA</t>
+          <t>Atzitzintla</t>
         </is>
       </c>
       <c r="C652">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C653">
@@ -8963,7 +8963,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>CHALCHICOMULA DE SESMA</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C654">
@@ -8976,7 +8976,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C655">
@@ -8989,7 +8989,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C656">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C657">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C658">
@@ -9028,7 +9028,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>CHILA</t>
+          <t>Chila</t>
         </is>
       </c>
       <c r="C659">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>COYOTEPEC</t>
+          <t>Coyotepec</t>
         </is>
       </c>
       <c r="C660">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>CUAYUCA DE ANDRADE</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C661">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>CUETZALAN DEL PROGRESO</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C662">
@@ -9080,7 +9080,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>ESPERANZA</t>
+          <t>Esperanza</t>
         </is>
       </c>
       <c r="C663">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>GENERAL FELIPE ÁNGELES</t>
+          <t>General Felipe Ángeles</t>
         </is>
       </c>
       <c r="C664">
@@ -9106,7 +9106,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C665">
@@ -9119,7 +9119,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>HUATLATLAUCA</t>
+          <t>Huatlatlauca</t>
         </is>
       </c>
       <c r="C666">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C667">
@@ -9145,7 +9145,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
+          <t>Hueytamalco</t>
         </is>
       </c>
       <c r="C668">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>IXCAQUIXTLA</t>
+          <t>Ixcaquixtla</t>
         </is>
       </c>
       <c r="C669">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C670">
@@ -9184,7 +9184,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>JOLALPAN</t>
+          <t>Jolalpan</t>
         </is>
       </c>
       <c r="C671">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>JUAN N. MÉNDEZ</t>
+          <t>Juan N. Méndez</t>
         </is>
       </c>
       <c r="C672">
@@ -9210,7 +9210,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C673">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C674">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>MOLCAXAC</t>
+          <t>Molcaxac</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>NICOLÁS BRAVO</t>
+          <t>Nicolás Bravo</t>
         </is>
       </c>
       <c r="C676">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>NOPALUCAN</t>
+          <t>Nopalucan</t>
         </is>
       </c>
       <c r="C677">
@@ -9275,7 +9275,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C678">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C679">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C680">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C681">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C682">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>SAN FELIPE TEOTLALCINGO</t>
+          <t>San Felipe Teotlalcingo</t>
         </is>
       </c>
       <c r="C683">
@@ -9353,7 +9353,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>SAN GABRIEL CHILAC</t>
+          <t>San Gabriel Chilac</t>
         </is>
       </c>
       <c r="C684">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO XAYACATLÁN</t>
+          <t>San Jerónimo Xayacatlán</t>
         </is>
       </c>
       <c r="C685">
@@ -9379,7 +9379,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>SAN JOSÉ MIAHUATLÁN</t>
+          <t>San José Miahuatlán</t>
         </is>
       </c>
       <c r="C686">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C687">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>SAN MIGUEL IXITLÁN</t>
+          <t>San Miguel Ixitlán</t>
         </is>
       </c>
       <c r="C688">
@@ -9418,7 +9418,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C689">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C690">
@@ -9444,7 +9444,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS HUEYOTLIPAN</t>
+          <t>Santo Tomás Hueyotlipan</t>
         </is>
       </c>
       <c r="C691">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>SOLTEPEC</t>
+          <t>Soltepec</t>
         </is>
       </c>
       <c r="C692">
@@ -9470,7 +9470,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C693">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C694">
@@ -9496,7 +9496,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C695">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C696">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C697">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO DE CUAUHTÉMOC</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C698">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C699">
@@ -9561,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>TIANGUISMANALCO</t>
+          <t>Tianguismanalco</t>
         </is>
       </c>
       <c r="C700">
@@ -9574,7 +9574,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>TILAPA</t>
+          <t>Tilapa</t>
         </is>
       </c>
       <c r="C701">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C702">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C703">
@@ -9613,7 +9613,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>TLANEPANTLA</t>
+          <t>Tlanepantla</t>
         </is>
       </c>
       <c r="C704">
@@ -9626,7 +9626,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>TLAPACOYA</t>
+          <t>Tlapacoya</t>
         </is>
       </c>
       <c r="C705">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>TLAPANALÁ</t>
+          <t>Tlapanalá</t>
         </is>
       </c>
       <c r="C706">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C707">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>TOCHIMILCO</t>
+          <t>Tochimilco</t>
         </is>
       </c>
       <c r="C708">
@@ -9678,7 +9678,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>TOCHTEPEC</t>
+          <t>Tochtepec</t>
         </is>
       </c>
       <c r="C709">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>TULCINGO</t>
+          <t>Tulcingo</t>
         </is>
       </c>
       <c r="C710">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C711">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C712">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>XOCHILTEPEC</t>
+          <t>Xochiltepec</t>
         </is>
       </c>
       <c r="C714">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>XOCHITLÁN TODOS SANTOS</t>
+          <t>Xochitlán Todos Santos</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>YEHUALTEPEC</t>
+          <t>Yehualtepec</t>
         </is>
       </c>
       <c r="C716">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>ZACAPALA</t>
+          <t>Zacapala</t>
         </is>
       </c>
       <c r="C717">
@@ -9795,7 +9795,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C718">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C719">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>ZAUTLA</t>
+          <t>Zautla</t>
         </is>
       </c>
       <c r="C720">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>ZIHUATEUTLA</t>
+          <t>Zihuateutla</t>
         </is>
       </c>
       <c r="C721">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C722">
@@ -9860,12 +9860,12 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C723">
@@ -9878,7 +9878,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C724">
@@ -9891,7 +9891,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>COLÓN</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="C725">
@@ -9904,7 +9904,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>CORREGIDORA</t>
+          <t>Corregidora</t>
         </is>
       </c>
       <c r="C726">
@@ -9917,7 +9917,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>EZEQUIEL MONTES</t>
+          <t>Ezequiel Montes</t>
         </is>
       </c>
       <c r="C727">
@@ -9930,7 +9930,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>PEÑAMILLER</t>
+          <t>Peñamiller</t>
         </is>
       </c>
       <c r="C728">
@@ -9943,7 +9943,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C729">
@@ -9956,7 +9956,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>SAN JOAQUÍN</t>
+          <t>San Joaquín</t>
         </is>
       </c>
       <c r="C730">
@@ -9969,7 +9969,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C731">
@@ -9982,7 +9982,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C732">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C733">
@@ -10008,12 +10008,12 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C734">
@@ -10026,7 +10026,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>JOSÉ MARÍA MORELOS</t>
+          <t>José María Morelos</t>
         </is>
       </c>
       <c r="C735">
@@ -10039,7 +10039,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C736">
@@ -10052,7 +10052,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C737">
@@ -10065,12 +10065,12 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>CHARCAS</t>
+          <t>Charcas</t>
         </is>
       </c>
       <c r="C738">
@@ -10083,7 +10083,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C739">
@@ -10096,7 +10096,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C740">
@@ -10109,7 +10109,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C741">
@@ -10122,7 +10122,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>TAMASOPO</t>
+          <t>Tamasopo</t>
         </is>
       </c>
       <c r="C742">
@@ -10135,7 +10135,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C743">
@@ -10148,7 +10148,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C744">
@@ -10161,12 +10161,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C745">
@@ -10179,7 +10179,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>ANGOSTURA</t>
+          <t>Angostura</t>
         </is>
       </c>
       <c r="C746">
@@ -10192,7 +10192,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>COSALÁ</t>
+          <t>Cosalá</t>
         </is>
       </c>
       <c r="C747">
@@ -10205,7 +10205,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C748">
@@ -10218,7 +10218,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C749">
@@ -10231,7 +10231,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>ELOTA</t>
+          <t>Elota</t>
         </is>
       </c>
       <c r="C750">
@@ -10244,7 +10244,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C751">
@@ -10257,7 +10257,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C752">
@@ -10270,7 +10270,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C753">
@@ -10283,7 +10283,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>NAVOLATO</t>
+          <t>Navolato</t>
         </is>
       </c>
       <c r="C754">
@@ -10296,7 +10296,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C755">
@@ -10309,7 +10309,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C756">
@@ -10322,7 +10322,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>San Ignacio</t>
         </is>
       </c>
       <c r="C757">
@@ -10335,7 +10335,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C758">
@@ -10348,7 +10348,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C759">
@@ -10361,12 +10361,12 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C760">
@@ -10379,7 +10379,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C761">
@@ -10392,7 +10392,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C762">
@@ -10405,7 +10405,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>GUAYMAS</t>
+          <t>Guaymas</t>
         </is>
       </c>
       <c r="C763">
@@ -10418,7 +10418,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C764">
@@ -10431,7 +10431,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C765">
@@ -10444,7 +10444,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>SAN LUIS RÍO COLORADO</t>
+          <t>San Luis Río Colorado</t>
         </is>
       </c>
       <c r="C766">
@@ -10457,7 +10457,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>YÉCORA</t>
+          <t>Yécora</t>
         </is>
       </c>
       <c r="C767">
@@ -10470,7 +10470,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C768">
@@ -10483,12 +10483,12 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C769">
@@ -10501,7 +10501,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C770">
@@ -10514,7 +10514,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>COMALCALCO</t>
+          <t>Comalcalco</t>
         </is>
       </c>
       <c r="C771">
@@ -10527,7 +10527,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C772">
@@ -10540,7 +10540,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C773">
@@ -10553,7 +10553,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>MACUSPANA</t>
+          <t>Macuspana</t>
         </is>
       </c>
       <c r="C774">
@@ -10566,7 +10566,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>TEAPA</t>
+          <t>Teapa</t>
         </is>
       </c>
       <c r="C775">
@@ -10579,7 +10579,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C776">
@@ -10592,7 +10592,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C777">
@@ -10605,12 +10605,12 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>MIGUEL ALEMÁN</t>
+          <t>Miguel Alemán</t>
         </is>
       </c>
       <c r="C778">
@@ -10623,7 +10623,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C779">
@@ -10636,7 +10636,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C780">
@@ -10649,7 +10649,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C781">
@@ -10662,7 +10662,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C782">
@@ -10675,12 +10675,12 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C783">
@@ -10693,7 +10693,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C784">
@@ -10706,7 +10706,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C785">
@@ -10719,7 +10719,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>SAN PABLO DEL MONTE</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C786">
@@ -10732,7 +10732,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>TEPETITLA DE LARDIZÁBAL</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C787">
@@ -10745,7 +10745,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C788">
@@ -10758,7 +10758,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C789">
@@ -10771,7 +10771,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>TOCATLÁN</t>
+          <t>Tocatlán</t>
         </is>
       </c>
       <c r="C790">
@@ -10784,7 +10784,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>TZOMPANTEPEC</t>
+          <t>Tzompantepec</t>
         </is>
       </c>
       <c r="C791">
@@ -10797,7 +10797,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>XALOZTOC</t>
+          <t>Xaloztoc</t>
         </is>
       </c>
       <c r="C792">
@@ -10810,7 +10810,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>ZACATELCO</t>
+          <t>Zacatelco</t>
         </is>
       </c>
       <c r="C793">
@@ -10823,7 +10823,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C794">
@@ -10836,12 +10836,12 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C795">
@@ -10854,7 +10854,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>ACULTZINGO</t>
+          <t>Acultzingo</t>
         </is>
       </c>
       <c r="C796">
@@ -10867,7 +10867,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>ALPATLÁHUAC</t>
+          <t>Alpatláhuac</t>
         </is>
       </c>
       <c r="C797">
@@ -10880,7 +10880,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C798">
@@ -10893,7 +10893,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C799">
@@ -10906,7 +10906,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>APAZAPAN</t>
+          <t>Apazapan</t>
         </is>
       </c>
       <c r="C800">
@@ -10919,7 +10919,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>ASTACINGA</t>
+          <t>Astacinga</t>
         </is>
       </c>
       <c r="C801">
@@ -10932,7 +10932,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C802">
@@ -10945,7 +10945,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>ATZACAN</t>
+          <t>Atzacan</t>
         </is>
       </c>
       <c r="C803">
@@ -10958,7 +10958,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C804">
@@ -10971,7 +10971,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C805">
@@ -10984,7 +10984,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>CAMERINO Z. MENDOZA</t>
+          <t>Camerino Z. Mendoza</t>
         </is>
       </c>
       <c r="C806">
@@ -10997,7 +10997,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>CARRILLO PUERTO</t>
+          <t>Carrillo Puerto</t>
         </is>
       </c>
       <c r="C807">
@@ -11010,7 +11010,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C808">
@@ -11023,7 +11023,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C809">
@@ -11036,7 +11036,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C810">
@@ -11049,7 +11049,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>COSOLEACAQUE</t>
+          <t>Cosoleacaque</t>
         </is>
       </c>
       <c r="C811">
@@ -11062,7 +11062,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C812">
@@ -11075,7 +11075,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>CUICHAPA</t>
+          <t>Cuichapa</t>
         </is>
       </c>
       <c r="C813">
@@ -11088,7 +11088,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>CUITLÁHUAC</t>
+          <t>Cuitláhuac</t>
         </is>
       </c>
       <c r="C814">
@@ -11101,7 +11101,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C815">
@@ -11114,7 +11114,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C816">
@@ -11127,7 +11127,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C817">
@@ -11140,7 +11140,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C818">
@@ -11153,7 +11153,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C819">
@@ -11166,7 +11166,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>ILAMATLÁN</t>
+          <t>Ilamatlán</t>
         </is>
       </c>
       <c r="C820">
@@ -11179,7 +11179,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C821">
@@ -11192,7 +11192,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C822">
@@ -11205,7 +11205,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL CAFÉ</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C823">
@@ -11218,7 +11218,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DEL SURESTE</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C824">
@@ -11231,7 +11231,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>IXTACZOQUITLÁN</t>
+          <t>Ixtaczoquitlán</t>
         </is>
       </c>
       <c r="C825">
@@ -11244,7 +11244,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>JAMAPA</t>
+          <t>Jamapa</t>
         </is>
       </c>
       <c r="C826">
@@ -11257,7 +11257,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C827">
@@ -11270,7 +11270,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C828">
@@ -11283,7 +11283,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C829">
@@ -11296,7 +11296,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C830">
@@ -11309,7 +11309,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>La Perla</t>
         </is>
       </c>
       <c r="C831">
@@ -11322,7 +11322,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C832">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>MALTRATA</t>
+          <t>Maltrata</t>
         </is>
       </c>
       <c r="C833">
@@ -11348,7 +11348,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>MANLIO FABIO ALTAMIRANO</t>
+          <t>Manlio Fabio Altamirano</t>
         </is>
       </c>
       <c r="C834">
@@ -11361,7 +11361,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>MARIANO ESCOBEDO</t>
+          <t>Mariano Escobedo</t>
         </is>
       </c>
       <c r="C835">
@@ -11374,7 +11374,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C836">
@@ -11387,7 +11387,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C837">
@@ -11400,7 +11400,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C838">
@@ -11413,7 +11413,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>MIXTLA DE ALTAMIRANO</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C839">
@@ -11426,7 +11426,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>MOLOACÁN</t>
+          <t>Moloacán</t>
         </is>
       </c>
       <c r="C840">
@@ -11439,7 +11439,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>NANCHITAL DE LÁZARO CÁRDENAS DEL RÍO</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C841">
@@ -11452,7 +11452,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C842">
@@ -11465,7 +11465,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C843">
@@ -11478,7 +11478,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C844">
@@ -11491,7 +11491,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C845">
@@ -11504,7 +11504,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C846">
@@ -11517,7 +11517,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C847">
@@ -11530,7 +11530,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C848">
@@ -11543,7 +11543,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C849">
@@ -11556,7 +11556,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>SOCHIAPA</t>
+          <t>Sochiapa</t>
         </is>
       </c>
       <c r="C850">
@@ -11569,7 +11569,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>SOLEDAD ATZOMPA</t>
+          <t>Soledad Atzompa</t>
         </is>
       </c>
       <c r="C851">
@@ -11582,7 +11582,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>SOLEDAD DE DOBLADO</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C852">
@@ -11595,7 +11595,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C853">
@@ -11608,7 +11608,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>TECOLUTLA</t>
+          <t>Tecolutla</t>
         </is>
       </c>
       <c r="C854">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C855">
@@ -11634,7 +11634,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>TEOCELO</t>
+          <t>Teocelo</t>
         </is>
       </c>
       <c r="C856">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C857">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C858">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C859">
@@ -11686,7 +11686,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>TLACOLULAN</t>
+          <t>Tlacolulan</t>
         </is>
       </c>
       <c r="C860">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C861">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C862">
@@ -11725,7 +11725,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C863">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>VEGA DE ALATORRE</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C864">
@@ -11751,7 +11751,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C865">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C866">
@@ -11777,7 +11777,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C867">
@@ -11790,7 +11790,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C868">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C869">
@@ -11816,12 +11816,12 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>CANTAMAYEC</t>
+          <t>Cantamayec</t>
         </is>
       </c>
       <c r="C870">
@@ -11834,7 +11834,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>CHACSINKÍN</t>
+          <t>Chacsinkín</t>
         </is>
       </c>
       <c r="C871">
@@ -11847,7 +11847,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>CHAPAB</t>
+          <t>Chapab</t>
         </is>
       </c>
       <c r="C872">
@@ -11860,7 +11860,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>CHUMAYEL</t>
+          <t>Chumayel</t>
         </is>
       </c>
       <c r="C873">
@@ -11873,7 +11873,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>DZÁN</t>
+          <t>Dzán</t>
         </is>
       </c>
       <c r="C874">
@@ -11886,7 +11886,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>HOMÚN</t>
+          <t>Homún</t>
         </is>
       </c>
       <c r="C875">
@@ -11899,7 +11899,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>KANTUNIL</t>
+          <t>Kantunil</t>
         </is>
       </c>
       <c r="C876">
@@ -11912,7 +11912,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>MAMA</t>
+          <t>Mama</t>
         </is>
       </c>
       <c r="C877">
@@ -11925,7 +11925,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>MANÍ</t>
+          <t>Maní</t>
         </is>
       </c>
       <c r="C878">
@@ -11938,7 +11938,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C879">
@@ -11951,7 +11951,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>OXKUTZCAB</t>
+          <t>Oxkutzcab</t>
         </is>
       </c>
       <c r="C880">
@@ -11964,7 +11964,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>TEABO</t>
+          <t>Teabo</t>
         </is>
       </c>
       <c r="C881">
@@ -11977,7 +11977,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>TECOH</t>
+          <t>Tecoh</t>
         </is>
       </c>
       <c r="C882">
@@ -11990,7 +11990,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>TEKAX</t>
+          <t>Tekax</t>
         </is>
       </c>
       <c r="C883">
@@ -12003,7 +12003,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>TEKIT</t>
+          <t>Tekit</t>
         </is>
       </c>
       <c r="C884">
@@ -12016,7 +12016,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>TICUL</t>
+          <t>Ticul</t>
         </is>
       </c>
       <c r="C885">
@@ -12029,7 +12029,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>TIXMEHUAC</t>
+          <t>Tixmehuac</t>
         </is>
       </c>
       <c r="C886">
@@ -12042,7 +12042,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>UMÁN</t>
+          <t>Umán</t>
         </is>
       </c>
       <c r="C887">
@@ -12055,7 +12055,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C888">
@@ -12068,12 +12068,12 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>APOZOL</t>
+          <t>Apozol</t>
         </is>
       </c>
       <c r="C889">
@@ -12086,7 +12086,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C890">
@@ -12099,7 +12099,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C891">
@@ -12112,7 +12112,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C892">
@@ -12125,7 +12125,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C893">
@@ -12138,7 +12138,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C894">
@@ -12151,7 +12151,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C895">
@@ -12164,7 +12164,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>JUCHIPILA</t>
+          <t>Juchipila</t>
         </is>
       </c>
       <c r="C896">
@@ -12177,7 +12177,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>MAZAPIL</t>
+          <t>Mazapil</t>
         </is>
       </c>
       <c r="C897">
@@ -12190,7 +12190,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>MEZQUITAL DEL ORO</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C898">
@@ -12203,7 +12203,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>MONTE ESCOBEDO</t>
+          <t>Monte Escobedo</t>
         </is>
       </c>
       <c r="C899">
@@ -12216,7 +12216,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>NOCHISTLÁN DE MEJÍA</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C900">
@@ -12229,7 +12229,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C901">
@@ -12242,7 +12242,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C902">
@@ -12255,7 +12255,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C903">
@@ -12268,7 +12268,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C904">
@@ -12281,7 +12281,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C905">
@@ -12294,7 +12294,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C906">
@@ -12307,7 +12307,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C907">
@@ -12320,7 +12320,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C908">
@@ -12333,7 +12333,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>VETAGRANDE</t>
+          <t>Vetagrande</t>
         </is>
       </c>
       <c r="C909">
@@ -12346,7 +12346,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C910">
@@ -12359,7 +12359,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>VILLA GONZÁLEZ ORTEGA</t>
+          <t>Villa González Ortega</t>
         </is>
       </c>
       <c r="C911">
@@ -12372,7 +12372,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C912">
@@ -12385,7 +12385,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C913">
@@ -12398,7 +12398,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C914">
@@ -12411,7 +12411,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C915">
@@ -12424,7 +12424,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C916">
@@ -12432,41 +12432,6 @@
       </c>
       <c r="D916">
         <v>1</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>
